--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-medicationsimplequantity.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-medicationsimplequantity.xlsx
@@ -434,7 +434,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationUnitMERIT9_VS</t>
   </si>
   <si>
     <t xml:space="preserve">qty-3
@@ -799,7 +799,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="54.0859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.89453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
